--- a/TrainingUniAir.xlsx
+++ b/TrainingUniAir.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\node-laravel-connector\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858FA702-AF2B-4A24-8CE0-D4044CA5974D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B1FBDC7-8444-489B-9EC9-B229B92D676A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{94D080AC-AFAA-4E05-A587-536F414A5B4B}"/>
+    <workbookView xWindow="1500" yWindow="1500" windowWidth="17280" windowHeight="8880" xr2:uid="{94D080AC-AFAA-4E05-A587-536F414A5B4B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Name</t>
   </si>
@@ -47,28 +47,10 @@
     <t>Status</t>
   </si>
   <si>
-    <t>Terrence1</t>
+    <t>Terrence2</t>
   </si>
   <si>
-    <t>Kevin1</t>
-  </si>
-  <si>
-    <t>Laurencio1</t>
-  </si>
-  <si>
-    <t>terrencereinhardt1@gmail.com</t>
-  </si>
-  <si>
-    <t>kevinpetersen1@gmail.com</t>
-  </si>
-  <si>
-    <t>jonathanlaurencio1@gmail.com</t>
-  </si>
-  <si>
-    <t>Bro</t>
-  </si>
-  <si>
-    <t>bro@gmail.com</t>
+    <t>terrencereinhardt2@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -462,10 +444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37397F06-4DB1-4C32-BB71-CFC56B2EB486}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -491,39 +473,30 @@
         <v>3</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>7</v>
-      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="B4" s="2"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>10</v>
-      </c>
+      <c r="B5" s="2"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="2"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{F23CDAFC-6E68-444C-8574-1AA967543E6A}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{0EF80F24-0E08-4D5B-8984-2F08064ABE32}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{8020F1E6-C5FA-48F5-9899-D6748FCAF421}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{E832D005-0AE7-405A-BDFD-3147CBE779C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
